--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.383191823959351</v>
+        <v>0.7616477012634277</v>
       </c>
       <c r="D2" t="n">
         <v>7.972</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.02782940864563</v>
+        <v>0.452197790145874</v>
       </c>
       <c r="D3" t="n">
         <v>7.972</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9148445129394531</v>
+        <v>0.5917079448699951</v>
       </c>
       <c r="D4" t="n">
         <v>7.308</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7391419410705566</v>
+        <v>0.6104588508605957</v>
       </c>
       <c r="D5" t="n">
         <v>7.308</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3374981880187988</v>
+        <v>0.2285418510437012</v>
       </c>
       <c r="D6" t="n">
         <v>6.017</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4890260696411133</v>
+        <v>0.218609094619751</v>
       </c>
       <c r="D7" t="n">
         <v>6.017</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3514533042907715</v>
+        <v>0.2316949367523193</v>
       </c>
       <c r="D8" t="n">
         <v>5.353</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3610293865203857</v>
+        <v>0.2334060668945312</v>
       </c>
       <c r="D9" t="n">
         <v>5.353</v>
@@ -593,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4713866710662842</v>
+        <v>0.3044748306274414</v>
       </c>
       <c r="D10" t="n">
         <v>67.27800000000001</v>
@@ -609,7 +609,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4817965030670166</v>
+        <v>0.2564606666564941</v>
       </c>
       <c r="D11" t="n">
         <v>73.413</v>
@@ -625,7 +625,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>7.96736478805542</v>
+        <v>1.385181188583374</v>
       </c>
       <c r="D12" t="n">
         <v>56.173</v>
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9489290714263916</v>
+        <v>0.7043569087982178</v>
       </c>
       <c r="D13" t="n">
         <v>73.245</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7504003047943115</v>
+        <v>0.46120285987854</v>
       </c>
       <c r="D14" t="n">
         <v>8.17</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7461929321289062</v>
+        <v>0.4641599655151367</v>
       </c>
       <c r="D15" t="n">
         <v>8.17</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8938493728637695</v>
+        <v>0.6073551177978516</v>
       </c>
       <c r="D16" t="n">
         <v>7.326</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.093066453933716</v>
+        <v>0.6166253089904785</v>
       </c>
       <c r="D17" t="n">
         <v>7.326</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5906622409820557</v>
+        <v>0.2390539646148682</v>
       </c>
       <c r="D18" t="n">
         <v>6.215</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4378812313079834</v>
+        <v>0.2097170352935791</v>
       </c>
       <c r="D19" t="n">
         <v>6.215</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5148677825927734</v>
+        <v>0.2335460186004639</v>
       </c>
       <c r="D20" t="n">
         <v>5.371</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5227210521697998</v>
+        <v>0.2475011348724365</v>
       </c>
       <c r="D21" t="n">
         <v>5.371</v>
@@ -785,7 +785,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5470459461212158</v>
+        <v>0.2984390258789062</v>
       </c>
       <c r="D22" t="n">
         <v>64.398</v>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5539813041687012</v>
+        <v>0.2853021621704102</v>
       </c>
       <c r="D23" t="n">
         <v>522.806</v>
@@ -817,7 +817,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9528276920318604</v>
+        <v>0.7291519641876221</v>
       </c>
       <c r="D24" t="n">
         <v>58.093</v>
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.17426872253418</v>
+        <v>0.8237051963806152</v>
       </c>
       <c r="D25" t="n">
         <v>522.668</v>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7616477012634277</v>
+        <v>0.866541862487793</v>
       </c>
       <c r="D2" t="n">
-        <v>7.972</v>
+        <v>113.882</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452197790145874</v>
+        <v>0.8198010921478271</v>
       </c>
       <c r="D3" t="n">
-        <v>7.972</v>
+        <v>113.882</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5917079448699951</v>
+        <v>0.7825679779052734</v>
       </c>
       <c r="D4" t="n">
-        <v>7.308</v>
+        <v>36.058</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6104588508605957</v>
+        <v>0.7832520008087158</v>
       </c>
       <c r="D5" t="n">
-        <v>7.308</v>
+        <v>36.058</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2285418510437012</v>
+        <v>0.442882776260376</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218609094619751</v>
+        <v>0.4710469245910645</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2316949367523193</v>
+        <v>0.4457030296325684</v>
       </c>
       <c r="D8" t="n">
-        <v>5.353</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2334060668945312</v>
+        <v>0.4514479637145996</v>
       </c>
       <c r="D9" t="n">
-        <v>5.353</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3044748306274414</v>
+        <v>0.4471509456634521</v>
       </c>
       <c r="D10" t="n">
-        <v>67.27800000000001</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2564606666564941</v>
+        <v>0.4793989658355713</v>
       </c>
       <c r="D11" t="n">
-        <v>73.413</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.385181188583374</v>
+        <v>1.702942132949829</v>
       </c>
       <c r="D12" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7043569087982178</v>
+        <v>1.646228075027466</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.46120285987854</v>
+        <v>0.7817337512969971</v>
       </c>
       <c r="D14" t="n">
-        <v>8.17</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4641599655151367</v>
+        <v>0.7196362018585205</v>
       </c>
       <c r="D15" t="n">
-        <v>8.17</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6073551177978516</v>
+        <v>0.7829658985137939</v>
       </c>
       <c r="D16" t="n">
-        <v>7.326</v>
+        <v>36.076</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6166253089904785</v>
+        <v>0.8030219078063965</v>
       </c>
       <c r="D17" t="n">
-        <v>7.326</v>
+        <v>36.076</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2390539646148682</v>
+        <v>0.4577617645263672</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>34.965</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2097170352935791</v>
+        <v>0.4841198921203613</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>34.965</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2335460186004639</v>
+        <v>0.4380321502685547</v>
       </c>
       <c r="D20" t="n">
-        <v>5.371</v>
+        <v>34.121</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2475011348724365</v>
+        <v>0.4383080005645752</v>
       </c>
       <c r="D21" t="n">
-        <v>5.371</v>
+        <v>34.121</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2984390258789062</v>
+        <v>0.4570102691650391</v>
       </c>
       <c r="D22" t="n">
-        <v>64.398</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2853021621704102</v>
+        <v>0.4445171356201172</v>
       </c>
       <c r="D23" t="n">
-        <v>522.806</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7291519641876221</v>
+        <v>1.626352071762085</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8237051963806152</v>
+        <v>1.65914511680603</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866541862487793</v>
+        <v>2.086951971054077</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8198010921478271</v>
+        <v>2.011152982711792</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825679779052734</v>
+        <v>2.276258945465088</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7832520008087158</v>
+        <v>2.290018796920776</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442882776260376</v>
+        <v>0.4321279525756836</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4710469245910645</v>
+        <v>0.4297568798065186</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4457030296325684</v>
+        <v>0.4532010555267334</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4514479637145996</v>
+        <v>0.4334938526153564</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4471509456634521</v>
+        <v>1.182691812515259</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>206.002</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4793989658355713</v>
+        <v>1.132276058197021</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>214.191</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.702942132949829</v>
+        <v>2.250383138656616</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.646228075027466</v>
+        <v>2.269140005111694</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7817337512969971</v>
+        <v>1.987937927246094</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7196362018585205</v>
+        <v>1.987695217132568</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7829658985137939</v>
+        <v>2.27921199798584</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8030219078063965</v>
+        <v>2.269299030303955</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4577617645263672</v>
+        <v>0.4402980804443359</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4841198921203613</v>
+        <v>0.5338201522827148</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4380321502685547</v>
+        <v>0.4310801029205322</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383080005645752</v>
+        <v>0.4386918544769287</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4570102691650391</v>
+        <v>1.159249067306519</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>206.231</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4445171356201172</v>
+        <v>1.123325109481812</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>1237.062</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626352071762085</v>
+        <v>2.392189025878906</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65914511680603</v>
+        <v>2.470978021621704</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866541862487793</v>
+        <v>2.255192041397095</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8198010921478271</v>
+        <v>0.06632399559020996</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825679779052734</v>
+        <v>0.06693005561828613</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7832520008087158</v>
+        <v>0.07197117805480957</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442882776260376</v>
+        <v>0.06642889976501465</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4710469245910645</v>
+        <v>0.06895995140075684</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4457030296325684</v>
+        <v>0.06762409210205078</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4514479637145996</v>
+        <v>0.06976199150085449</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4471509456634521</v>
+        <v>0.06574010848999023</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4793989658355713</v>
+        <v>0.06995487213134766</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.702942132949829</v>
+        <v>0.06684327125549316</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.255192041397095</v>
+        <v>2.052710771560669</v>
       </c>
       <c r="D2" t="n">
         <v>115.378</v>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06632399559020996</v>
+        <v>2.029114961624146</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06693005561828613</v>
+        <v>2.287804841995239</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07197117805480957</v>
+        <v>2.28786826133728</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06642889976501465</v>
+        <v>0.5531821250915527</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06895995140075684</v>
+        <v>0.4294180870056152</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06762409210205078</v>
+        <v>0.439629077911377</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06976199150085449</v>
+        <v>0.5397999286651611</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06574010848999023</v>
+        <v>1.215977907180786</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>174.684</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06995487213134766</v>
+        <v>1.821817874908447</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>180.819</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06684327125549316</v>
+        <v>2.523441076278687</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.646228075027466</v>
+        <v>2.300740003585815</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7817337512969971</v>
+        <v>1.997589111328125</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7196362018585205</v>
+        <v>2.020562887191772</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7829658985137939</v>
+        <v>2.281056880950928</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8030219078063965</v>
+        <v>2.2811439037323</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4577617645263672</v>
+        <v>0.4651851654052734</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4841198921203613</v>
+        <v>0.5612339973449707</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4380321502685547</v>
+        <v>0.4425721168518066</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383080005645752</v>
+        <v>0.4383738040924072</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4570102691650391</v>
+        <v>1.261638879776001</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>171.804</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4445171356201172</v>
+        <v>1.265890121459961</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>630.212</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626352071762085</v>
+        <v>2.545030832290649</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65914511680603</v>
+        <v>2.550992965698242</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866541862487793</v>
+        <v>0.8148748874664307</v>
       </c>
       <c r="D2" t="n">
         <v>113.882</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8198010921478271</v>
+        <v>0.7054197788238525</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825679779052734</v>
+        <v>0.90572190284729</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7832520008087158</v>
+        <v>0.7847659587860107</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442882776260376</v>
+        <v>0.4560389518737793</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4710469245910645</v>
+        <v>0.4564371109008789</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4457030296325684</v>
+        <v>0.4393019676208496</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4514479637145996</v>
+        <v>0.4351868629455566</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4471509456634521</v>
+        <v>0.4474172592163086</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4793989658355713</v>
+        <v>0.4988541603088379</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.702942132949829</v>
+        <v>1.244988918304443</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.646228075027466</v>
+        <v>1.490109920501709</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>191.681</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7817337512969971</v>
+        <v>0.7200140953063965</v>
       </c>
       <c r="D14" t="n">
         <v>114.08</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7196362018585205</v>
+        <v>0.722114086151123</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7829658985137939</v>
+        <v>0.789949893951416</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8030219078063965</v>
+        <v>0.7872300148010254</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4577617645263672</v>
+        <v>0.4764060974121094</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4841198921203613</v>
+        <v>0.4887983798980713</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4380321502685547</v>
+        <v>0.4460771083831787</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383080005645752</v>
+        <v>0.4311869144439697</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4570102691650391</v>
+        <v>0.449193000793457</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4445171356201172</v>
+        <v>0.4509420394897461</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626352071762085</v>
+        <v>1.524977922439575</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65914511680603</v>
+        <v>1.539427280426025</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.052710771560669</v>
+        <v>2.056389808654785</v>
       </c>
       <c r="D2" t="n">
         <v>115.378</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.029114961624146</v>
+        <v>2.03328013420105</v>
       </c>
       <c r="D3" t="n">
         <v>115.378</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.287804841995239</v>
+        <v>2.283926010131836</v>
       </c>
       <c r="D4" t="n">
         <v>37.554</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.28786826133728</v>
+        <v>2.29977011680603</v>
       </c>
       <c r="D5" t="n">
         <v>37.554</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5531821250915527</v>
+        <v>0.4501240253448486</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4294180870056152</v>
+        <v>0.4615128040313721</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.439629077911377</v>
+        <v>0.4458160400390625</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5397999286651611</v>
+        <v>0.4506099224090576</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.215977907180786</v>
+        <v>1.135741949081421</v>
       </c>
       <c r="D10" t="n">
-        <v>174.684</v>
+        <v>172.778</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.821817874908447</v>
+        <v>1.082741975784302</v>
       </c>
       <c r="D11" t="n">
-        <v>180.819</v>
+        <v>193.136</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.523441076278687</v>
+        <v>2.273452997207642</v>
       </c>
       <c r="D12" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.300740003585815</v>
+        <v>2.309031963348389</v>
       </c>
       <c r="D13" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.997589111328125</v>
+        <v>1.987302780151367</v>
       </c>
       <c r="D14" t="n">
         <v>115.576</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.020562887191772</v>
+        <v>2.029863834381104</v>
       </c>
       <c r="D15" t="n">
         <v>115.576</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.281056880950928</v>
+        <v>2.271696805953979</v>
       </c>
       <c r="D16" t="n">
         <v>37.572</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.2811439037323</v>
+        <v>2.294809103012085</v>
       </c>
       <c r="D17" t="n">
         <v>37.572</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4651851654052734</v>
+        <v>0.4396870136260986</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5612339973449707</v>
+        <v>0.4437661170959473</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4425721168518066</v>
+        <v>0.4179401397705078</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383738040924072</v>
+        <v>0.4367480278015137</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.261638879776001</v>
+        <v>1.231332063674927</v>
       </c>
       <c r="D22" t="n">
-        <v>171.804</v>
+        <v>170.025</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.265890121459961</v>
+        <v>1.224650859832764</v>
       </c>
       <c r="D23" t="n">
-        <v>630.212</v>
+        <v>578.597</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.545030832290649</v>
+        <v>2.421627759933472</v>
       </c>
       <c r="D24" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.550992965698242</v>
+        <v>2.349858045578003</v>
       </c>
       <c r="D25" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.086951971054077</v>
+        <v>2.027311086654663</v>
       </c>
       <c r="D2" t="n">
         <v>115.378</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.011152982711792</v>
+        <v>1.991534948348999</v>
       </c>
       <c r="D3" t="n">
         <v>115.378</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.276258945465088</v>
+        <v>2.284233808517456</v>
       </c>
       <c r="D4" t="n">
         <v>37.554</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.290018796920776</v>
+        <v>2.286542177200317</v>
       </c>
       <c r="D5" t="n">
         <v>37.554</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4321279525756836</v>
+        <v>0.44942307472229</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4297568798065186</v>
+        <v>0.4423940181732178</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4532010555267334</v>
+        <v>0.4462430477142334</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4334938526153564</v>
+        <v>0.4288959503173828</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.182691812515259</v>
+        <v>1.16931414604187</v>
       </c>
       <c r="D10" t="n">
-        <v>206.002</v>
+        <v>201.622</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.132276058197021</v>
+        <v>1.096475839614868</v>
       </c>
       <c r="D11" t="n">
-        <v>214.191</v>
+        <v>241.523</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.250383138656616</v>
+        <v>2.230537176132202</v>
       </c>
       <c r="D12" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.269140005111694</v>
+        <v>2.26639723777771</v>
       </c>
       <c r="D13" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.987937927246094</v>
+        <v>1.987137079238892</v>
       </c>
       <c r="D14" t="n">
         <v>115.576</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.987695217132568</v>
+        <v>2.002366065979004</v>
       </c>
       <c r="D15" t="n">
         <v>115.576</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.27921199798584</v>
+        <v>2.295869827270508</v>
       </c>
       <c r="D16" t="n">
         <v>37.572</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.269299030303955</v>
+        <v>2.269575834274292</v>
       </c>
       <c r="D17" t="n">
         <v>37.572</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4402980804443359</v>
+        <v>0.4455299377441406</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5338201522827148</v>
+        <v>0.450800895690918</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4310801029205322</v>
+        <v>0.4394638538360596</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4386918544769287</v>
+        <v>0.4411258697509766</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.159249067306519</v>
+        <v>1.212182998657227</v>
       </c>
       <c r="D22" t="n">
-        <v>206.231</v>
+        <v>202.266</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.123325109481812</v>
+        <v>1.156255960464478</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.062</v>
+        <v>1020.219</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.392189025878906</v>
+        <v>2.345935821533203</v>
       </c>
       <c r="D24" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.470978021621704</v>
+        <v>2.427527189254761</v>
       </c>
       <c r="D25" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866541862487793</v>
+        <v>0.7784590721130371</v>
       </c>
       <c r="D2" t="n">
         <v>113.882</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8198010921478271</v>
+        <v>0.7142510414123535</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825679779052734</v>
+        <v>0.7852439880371094</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7832520008087158</v>
+        <v>0.7908868789672852</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442882776260376</v>
+        <v>0.4474687576293945</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4710469245910645</v>
+        <v>0.4257011413574219</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4457030296325684</v>
+        <v>0.4359540939331055</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4514479637145996</v>
+        <v>0.4349651336669922</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4471509456634521</v>
+        <v>0.4578831195831299</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4793989658355713</v>
+        <v>0.4591701030731201</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.702942132949829</v>
+        <v>1.414563179016113</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.646228075027466</v>
+        <v>1.479671001434326</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7817337512969971</v>
+        <v>0.7875409126281738</v>
       </c>
       <c r="D14" t="n">
         <v>114.08</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7196362018585205</v>
+        <v>0.7038631439208984</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7829658985137939</v>
+        <v>0.8996069431304932</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8030219078063965</v>
+        <v>0.782027006149292</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4577617645263672</v>
+        <v>0.4310538768768311</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4841198921203613</v>
+        <v>0.4576842784881592</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4380321502685547</v>
+        <v>0.4523980617523193</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383080005645752</v>
+        <v>0.4375112056732178</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4570102691650391</v>
+        <v>0.4568383693695068</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4445171356201172</v>
+        <v>0.4853818416595459</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626352071762085</v>
+        <v>1.541707038879395</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65914511680603</v>
+        <v>1.539366960525513</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866541862487793</v>
+        <v>0.6041562557220459</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>36.722</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8198010921478271</v>
+        <v>0.7962613105773926</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825679779052734</v>
+        <v>0.7804069519042969</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7832520008087158</v>
+        <v>0.8053989410400391</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442882776260376</v>
+        <v>0.4351806640625</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4710469245910645</v>
+        <v>0.4649171829223633</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4457030296325684</v>
+        <v>0.4421367645263672</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4514479637145996</v>
+        <v>0.4214615821838379</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4471509456634521</v>
+        <v>0.4719140529632568</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4793989658355713</v>
+        <v>0.4530150890350342</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.702942132949829</v>
+        <v>1.406634330749512</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.646228075027466</v>
+        <v>1.472842931747437</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7817337512969971</v>
+        <v>0.7236049175262451</v>
       </c>
       <c r="D14" t="n">
         <v>114.08</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7196362018585205</v>
+        <v>0.7014157772064209</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7829658985137939</v>
+        <v>0.7865490913391113</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8030219078063965</v>
+        <v>0.7954599857330322</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4577617645263672</v>
+        <v>0.4603641033172607</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4841198921203613</v>
+        <v>0.4446489810943604</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4380321502685547</v>
+        <v>0.4488339424133301</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4383080005645752</v>
+        <v>0.4594576358795166</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4570102691650391</v>
+        <v>0.4530429840087891</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4445171356201172</v>
+        <v>0.4568362236022949</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626352071762085</v>
+        <v>1.392916917800903</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65914511680603</v>
+        <v>1.695806980133057</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8148748874664307</v>
+        <v>0.7484068870544434</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7054197788238525</v>
+        <v>0.6934850215911865</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.90572190284729</v>
+        <v>0.7814888954162598</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7847659587860107</v>
+        <v>0.7919352054595947</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4560389518737793</v>
+        <v>0.4249870777130127</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4564371109008789</v>
+        <v>0.4297568798065186</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4393019676208496</v>
+        <v>0.4225218296051025</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4351868629455566</v>
+        <v>0.4945981502532959</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4474172592163086</v>
+        <v>0.4259448051452637</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4988541603088379</v>
+        <v>0.4431056976318359</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.244988918304443</v>
+        <v>1.413753986358643</v>
       </c>
       <c r="D12" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.490109920501709</v>
+        <v>1.460135936737061</v>
       </c>
       <c r="D13" t="n">
-        <v>191.681</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7200140953063965</v>
+        <v>0.6903598308563232</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.722114086151123</v>
+        <v>0.711745023727417</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.789949893951416</v>
+        <v>0.8031651973724365</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7872300148010254</v>
+        <v>0.7867269515991211</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4764060974121094</v>
+        <v>0.5204479694366455</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4887983798980713</v>
+        <v>0.4277801513671875</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4460771083831787</v>
+        <v>0.4221870899200439</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4311869144439697</v>
+        <v>0.42445969581604</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.449193000793457</v>
+        <v>0.4501650333404541</v>
       </c>
       <c r="D22" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4509420394897461</v>
+        <v>0.4497570991516113</v>
       </c>
       <c r="D23" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.524977922439575</v>
+        <v>1.362637042999268</v>
       </c>
       <c r="D24" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.539427280426025</v>
+        <v>1.481043815612793</v>
       </c>
       <c r="D25" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7575838565826416</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6651008129119873</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7990012168884277</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.789459228515625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4376981258392334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4381740093231201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4158420562744141</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4287300109863281</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5681107044219971</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4447720050811768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.540954113006592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.478178024291992</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7269680500030518</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7200078964233398</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7850832939147949</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7584278583526611</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4121160507202148</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4035389423370361</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.413377046585083</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4068641662597656</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4303622245788574</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4353251457214355</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.350710153579712</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.40513014793396</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6636166572570801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6870489120483398</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7750132083892822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7769012451171875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4430851936340332</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4327280521392822</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.421018123626709</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4250009059906006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4461729526519775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4353559017181396</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.457347869873047</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.500155210494995</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6694190502166748</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6723520755767822</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7604780197143555</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7649688720703125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4383232593536377</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4339029788970947</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4316380023956299</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4055371284484863</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.423396110534668</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4384088516235352</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.414047002792358</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.553561925888062</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7494449615478516</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6907122135162354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8993520736694336</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7950172424316406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.522428035736084</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4201021194458008</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4079411029815674</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4133639335632324</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4442448616027832</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4395933151245117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.559762239456177</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.457904815673828</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8206532001495361</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6805908679962158</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7913568019866943</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7938807010650635</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4617059230804443</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4311010837554932</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4176619052886963</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4078490734100342</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4489059448242188</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4395060539245605</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.3421790599823</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.63979697227478</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7585828304290771</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7120277881622314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.909616231918335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7953031063079834</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4177801609039307</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4453260898590088</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3939359188079834</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4294290542602539</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4242789745330811</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4335978031158447</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.548151969909668</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.583624839782715</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6927769184112549</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7117719650268555</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7973978519439697</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.789376974105835</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4440162181854248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4210140705108643</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4282541275024414</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4234888553619385</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4504787921905518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4209761619567871</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.455424070358276</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.394169092178345</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7024848461151123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7981979846954346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7783610820770264</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7774860858917236</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4205460548400879</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4384870529174805</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4130980968475342</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4266731739044189</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4525890350341797</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4388563632965088</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.512042999267578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.467483043670654</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7512178421020508</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6702048778533936</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7921481132507324</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.766862154006958</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.415463924407959</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4202859401702881</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4091269969940186</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4085311889648438</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4778957366943359</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4200420379638672</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.309121131896973</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.578609228134155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7165157794952393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6820130348205566</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7875299453735352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8698210716247559</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4201760292053223</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4201610088348389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4235236644744873</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4218580722808838</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4436080455780029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.426936149597168</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.487226724624634</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.502728939056396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6975851058959961</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7073240280151367</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8007709980010986</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8732967376708984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4345159530639648</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.454160213470459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4444668292999268</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4339950084686279</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4323880672454834</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5486419200897217</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.382277011871338</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.482216358184814</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7269949913024902</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7031409740447998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7813282012939453</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7693061828613281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4162118434906006</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4186298847198486</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4087121486663818</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5268218517303467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4120240211486816</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4327490329742432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.508057117462158</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.639630079269409</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6780209541320801</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7023038864135742</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7845618724822998</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7903110980987549</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4384498596191406</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4455912113189697</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4284486770629883</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4238879680633545</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4290170669555664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5533890724182129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.383091926574707</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.514259099960327</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.684920072555542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7232730388641357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8001880645751953</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7704668045043945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4103171825408936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4166159629821777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4244089126586914</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4143340587615967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.423429012298584</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4769368171691895</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.445482969284058</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.519836187362671</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7012810707092285</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.66538405418396</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7599349021911621</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7780230045318604</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4167501926422119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4653739929199219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4558367729187012</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.427044153213501</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4431061744689941</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4531760215759277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.373920917510986</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.47212290763855</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7091109752655029</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7133748531341553</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7676188945770264</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7908668518066406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4998736381530762</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4442219734191895</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4267559051513672</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4259860515594482</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4655389785766602</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4516043663024902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.488854885101318</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.535991191864014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7051160335540771</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6975700855255127</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7987060546875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8721699714660645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4307780265808105</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4257872104644775</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.426393985748291</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4218039512634277</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4374930858612061</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.446497917175293</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.332392930984497</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.504806995391846</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7784590721130371</v>
+        <v>0.9165639877319336</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7142510414123535</v>
+        <v>0.7528769969940186</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7852439880371094</v>
+        <v>0.8037211894989014</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7908868789672852</v>
+        <v>0.8640892505645752</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4474687576293945</v>
+        <v>0.4362220764160156</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4257011413574219</v>
+        <v>0.4312961101531982</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4359540939331055</v>
+        <v>0.430994987487793</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4349651336669922</v>
+        <v>0.4330959320068359</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4578831195831299</v>
+        <v>0.4420208930969238</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4591701030731201</v>
+        <v>0.4850790500640869</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.414563179016113</v>
+        <v>1.44200587272644</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.479671001434326</v>
+        <v>1.476177215576172</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7875409126281738</v>
+        <v>0.7150301933288574</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7038631439208984</v>
+        <v>0.6994540691375732</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8996069431304932</v>
+        <v>0.8043820858001709</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.782027006149292</v>
+        <v>0.7800760269165039</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4310538768768311</v>
+        <v>0.4435577392578125</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4576842784881592</v>
+        <v>0.4344561100006104</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4523980617523193</v>
+        <v>0.429649829864502</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4375112056732178</v>
+        <v>0.4316771030426025</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4568383693695068</v>
+        <v>0.8158318996429443</v>
       </c>
       <c r="D22" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4853818416595459</v>
+        <v>0.4293355941772461</v>
       </c>
       <c r="D23" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.541707038879395</v>
+        <v>1.543668031692505</v>
       </c>
       <c r="D24" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.539366960525513</v>
+        <v>1.477885246276855</v>
       </c>
       <c r="D25" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7047379016876221</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7138171195983887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7903759479522705</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7826910018920898</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4489071369171143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.434283971786499</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4253408908843994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4302642345428467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4547581672668457</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4331698417663574</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.480869770050049</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.495388031005859</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.716663122177124</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7392492294311523</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8043100833892822</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7888460159301758</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4430420398712158</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4424870014190674</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4193611145019531</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4240069389343262</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4461841583251953</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4311707019805908</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.439081907272339</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.712447166442871</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7381958961486816</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.022484064102173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7923071384429932</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7882370948791504</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4280540943145752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4346749782562256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4212422370910645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4153242111206055</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4445822238922119</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4452619552612305</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.458808898925781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.402365922927856</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7403693199157715</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7131850719451904</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7925610542297363</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7999839782714844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4395577907562256</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4387929439544678</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4494121074676514</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4262840747833252</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4357850551605225</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5138380527496338</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.513117074966431</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.606353998184204</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6977519989013672</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7016110420227051</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8724019527435303</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7928071022033691</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6034018993377686</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5216410160064697</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5680339336395264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4195048809051514</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4814009666442871</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4343700408935547</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.361661195755005</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.50208306312561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.70638108253479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7258796691894531</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7678549289703369</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7997429370880127</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4316940307617188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.427929162979126</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4405992031097412</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4821188449859619</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4619860649108887</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4264509677886963</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.520278930664062</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.632723808288574</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7124831676483154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7501082420349121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8044641017913818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7955350875854492</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4498071670532227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4305453300476074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4567837715148926</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4307069778442383</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4470582008361816</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4454429149627686</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.361904144287109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.54149603843689</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7160959243774414</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6955101490020752</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7913219928741455</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8276097774505615</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4477341175079346</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4575390815734863</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4271128177642822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4286808967590332</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4424810409545898</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4313647747039795</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.379252910614014</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.589887142181396</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7147810459136963</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7090599536895752</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7915549278259277</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8085780143737793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.504817008972168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4372270107269287</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4294359683990479</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4270389080047607</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4216697216033936</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4271140098571777</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.541006088256836</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.476144790649414</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7130911350250244</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7172670364379883</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9248099327087402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8077511787414551</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.517470121383667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.16963005065918</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7607901096343994</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4687941074371338</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.43890380859375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4385840892791748</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.345754146575928</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.513746023178101</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7212190628051758</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7029111385345459</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.014864921569824</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7946300506591797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4225308895111084</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4339909553527832</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4241549968719482</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4227590560913086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4376780986785889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.452160120010376</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.486711740493774</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.473312854766846</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7386829853057861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8030211925506592</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8877103328704834</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7946047782897949</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.431786060333252</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.425858736038208</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5446970462799072</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4339070320129395</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4593360424041748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4512271881103516</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.35998797416687</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.978863000869751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7014451026916504</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8034918308258057</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.809420108795166</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7979199886322021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4584388732910156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4215543270111084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4341659545898438</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4368298053741455</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.456118106842041</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4441349506378174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.485030889511108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.574733018875122</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7125649452209473</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7524280548095703</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7881038188934326</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.790503978729248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4273138046264648</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.424839973449707</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4116547107696533</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4342319965362549</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4283089637756348</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4312598705291748</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.40225887298584</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.651657819747925</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8049640655517578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7040529251098633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8160431385040283</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9166750907897949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5676031112670898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.571134090423584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4191188812255859</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4223408699035645</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5474228858947754</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4334390163421631</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.480861902236938</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.52758002281189</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7124199867248535</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7084312438964844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7941060066223145</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8007171154022217</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4363126754760742</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4419300556182861</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4268081188201904</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4288649559020996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4567797183990479</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4288620948791504</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.308621883392334</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.771204710006714</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7061319351196289</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7398982048034668</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8130040168762207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8321750164031982</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4308719635009766</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4294309616088867</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.417046070098877</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4400777816772461</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.464475154876709</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4390811920166016</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.346923112869263</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.624987125396729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7037858963012695</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7123289108276367</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7738540172576904</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7909440994262695</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.435230016708374</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.432744026184082</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5467650890350342</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4285628795623779</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4313788414001465</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4246370792388916</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.298172950744629</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.643810987472534</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6041562557220459</v>
+        <v>0.7806012630462646</v>
       </c>
       <c r="D2" t="n">
-        <v>36.722</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7962613105773926</v>
+        <v>0.7353360652923584</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7804069519042969</v>
+        <v>0.7968020439147949</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053989410400391</v>
+        <v>0.7979400157928467</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4351806640625</v>
+        <v>0.4381582736968994</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4649171829223633</v>
+        <v>0.4348013401031494</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4421367645263672</v>
+        <v>0.4259140491485596</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4214615821838379</v>
+        <v>0.4328861236572266</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4719140529632568</v>
+        <v>0.4528131484985352</v>
       </c>
       <c r="D10" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4530150890350342</v>
+        <v>0.4352328777313232</v>
       </c>
       <c r="D11" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.406634330749512</v>
+        <v>1.48858904838562</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.472842931747437</v>
+        <v>1.676651000976562</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7236049175262451</v>
+        <v>0.8255529403686523</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7014157772064209</v>
+        <v>0.6945428848266602</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7865490913391113</v>
+        <v>0.8005597591400146</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7954599857330322</v>
+        <v>0.79709792137146</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4603641033172607</v>
+        <v>0.4391307830810547</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4446489810943604</v>
+        <v>0.4357481002807617</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4488339424133301</v>
+        <v>0.4317610263824463</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4594576358795166</v>
+        <v>0.4243049621582031</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4530429840087891</v>
+        <v>0.4367508888244629</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4568362236022949</v>
+        <v>0.4292631149291992</v>
       </c>
       <c r="D23" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.392916917800903</v>
+        <v>1.705630779266357</v>
       </c>
       <c r="D24" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.695806980133057</v>
+        <v>1.776830911636353</v>
       </c>
       <c r="D25" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5404560565948486</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.894</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5310599803924561</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7938699722290039</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7882838249206543</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4294970035552979</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4462301731109619</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4351491928100586</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4167380332946777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4506330490112305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4233460426330566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.433727979660034</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.643336296081543</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.70552659034729</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7056257724761963</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8028643131256104</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.764782190322876</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4409399032592773</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4427769184112549</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4300508499145508</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4212839603424072</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4783978462219238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4568109512329102</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.631799936294556</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.772340059280396</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7066938877105713</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7232377529144287</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7928831577301025</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7743988037109375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4259328842163086</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4438090324401855</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.426649808883667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4195351600646973</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.441342830657959</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4394748210906982</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.498505115509033</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.680912017822266</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.702488899230957</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6986923217773438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7924597263336182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8051130771636963</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.445382833480835</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4285051822662354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4173469543457031</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5369820594787598</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4590919017791748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4974658489227295</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.651704072952271</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.778126955032349</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7753050327301025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7316629886627197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.807377815246582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7987320423126221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4212088584899902</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4450299739837646</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4212679862976074</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4242701530456543</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4396219253540039</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4449119567871094</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.50721287727356</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.605452060699463</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7983508110046387</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7066581249237061</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8264291286468506</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7866799831390381</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4427049160003662</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4385480880737305</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4124119281768799</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5387668609619141</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.464580774307251</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4474349021911621</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.43604302406311</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.700127840042114</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7095661163330078</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7324330806732178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7911927700042725</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8040351867675781</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4358911514282227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4402890205383301</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4282219409942627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4098398685455322</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4754738807678223</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4328567981719971</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.42178201675415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.553277015686035</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7062039375305176</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7264690399169922</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7813549041748047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8057858943939209</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5454261302947998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4218559265136719</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4354097843170166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4164061546325684</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4431610107421875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4638240337371826</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.659909725189209</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.74036979675293</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7257218360900879</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7248411178588867</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.791917085647583</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8758449554443359</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.431401252746582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4276101589202881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4216136932373047</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4337680339813232</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4212071895599365</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4283709526062012</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.609096050262451</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.661034822463989</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7108390331268311</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.545447826385498</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39.092</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8723540306091309</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7927350997924805</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4278998374938965</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4404070377349854</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4276189804077148</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4813029766082764</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4513089656829834</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.437061071395874</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.654114961624146</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.776955842971802</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7956371307373047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8039007186889648</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8003180027008057</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8202800750732422</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4329202175140381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4360089302062988</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5425097942352295</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4359900951385498</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4286439418792725</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4367601871490479</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.547851800918579</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.719590902328491</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8063600063323975</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7393357753753662</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7956328392028809</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7961080074310303</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5325691699981689</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4352431297302246</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4275548458099365</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4112479686737061</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4317941665649414</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5510778427124023</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.54088306427002</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.72182297706604</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7444121837615967</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6986019611358643</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8115677833557129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7781603336334229</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4366860389709473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4304599761962891</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4248208999633789</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4192850589752197</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4278032779693604</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.463660717010498</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.615453004837036</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.633113145828247</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7064998149871826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7205591201782227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7867679595947266</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7703568935394287</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.441309928894043</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.444101095199585</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4349400997161865</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4352030754089355</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.441648006439209</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4361169338226318</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.458418130874634</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.884158134460449</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7136690616607666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7305638790130615</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8095290660858154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8026969432830811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4478020668029785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4599950313568115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4281549453735352</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4199750423431396</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4515061378479004</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4454469680786133</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.373320817947388</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.698823928833008</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7041678428649902</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6944799423217773</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7870559692382812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.801581859588623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4465212821960449</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4683942794799805</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4287099838256836</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4312100410461426</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4371588230133057</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4463350772857666</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.648590087890625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.627468109130859</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7226159572601318</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7035481929779053</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8160717487335205</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7834749221801758</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4296920299530029</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4559280872344971</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4319579601287842</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4428300857543945</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8721680641174316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.44252610206604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.33740496635437</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.366858005523682</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7648067474365234</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7292912006378174</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.813478946685791</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8141119480133057</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4464430809020996</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4312338829040527</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4356138706207275</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4307630062103271</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4439029693603516</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.497316837310791</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.529911994934082</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.740652799606323</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.056389808654785</v>
+        <v>2.406022071838379</v>
       </c>
       <c r="D2" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.03328013420105</v>
+        <v>2.355045795440674</v>
       </c>
       <c r="D3" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.283926010131836</v>
+        <v>2.679128885269165</v>
       </c>
       <c r="D4" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.29977011680603</v>
+        <v>2.665274143218994</v>
       </c>
       <c r="D5" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4501240253448486</v>
+        <v>0.4589827060699463</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4615128040313721</v>
+        <v>0.422269344329834</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4458160400390625</v>
+        <v>0.4203410148620605</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4506099224090576</v>
+        <v>0.4249589443206787</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.135741949081421</v>
+        <v>1.325309276580811</v>
       </c>
       <c r="D10" t="n">
-        <v>172.778</v>
+        <v>174.95</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.082741975784302</v>
+        <v>1.271655082702637</v>
       </c>
       <c r="D11" t="n">
-        <v>193.136</v>
+        <v>195.308</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.273452997207642</v>
+        <v>2.41231107711792</v>
       </c>
       <c r="D12" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.309031963348389</v>
+        <v>2.538865089416504</v>
       </c>
       <c r="D13" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.987302780151367</v>
+        <v>2.353422164916992</v>
       </c>
       <c r="D14" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.029863834381104</v>
+        <v>2.337366104125977</v>
       </c>
       <c r="D15" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.271696805953979</v>
+        <v>2.667498111724854</v>
       </c>
       <c r="D16" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.294809103012085</v>
+        <v>2.650185823440552</v>
       </c>
       <c r="D17" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4396870136260986</v>
+        <v>0.4545416831970215</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4437661170959473</v>
+        <v>0.4427111148834229</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4179401397705078</v>
+        <v>0.4221770763397217</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4367480278015137</v>
+        <v>0.4256041049957275</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.231332063674927</v>
+        <v>1.414491891860962</v>
       </c>
       <c r="D22" t="n">
-        <v>170.025</v>
+        <v>172.197</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.224650859832764</v>
+        <v>1.437875032424927</v>
       </c>
       <c r="D23" t="n">
-        <v>578.597</v>
+        <v>580.769</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.421627759933472</v>
+        <v>2.589367866516113</v>
       </c>
       <c r="D24" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.349858045578003</v>
+        <v>2.707144975662231</v>
       </c>
       <c r="D25" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.346482753753662</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.393860101699829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.665738105773926</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.642826318740845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4579579830169678</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4538381099700928</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4223959445953369</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4241127967834473</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.319321155548096</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.262760877609253</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.325723886489868</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.507692098617554</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.335157155990601</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.353758096694946</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.655436038970947</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.637988805770874</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4224748611450195</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5418012142181396</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4397079944610596</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4154512882232666</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.423083066940308</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.439224004745483</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.631968021392822</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.693599939346313</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.341315031051636</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.354771852493286</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.644460201263428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.639516830444336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.449167013168335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4362540245056152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4339628219604492</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4167890548706055</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.328702926635742</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.265449047088623</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.456227779388428</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.511136054992676</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.343953132629395</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.353718996047974</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.776413917541504</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.651712894439697</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4351809024810791</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4250333309173584</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4138050079345703</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4266488552093506</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.405134201049805</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.436861038208008</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.478770017623901</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.71753978729248</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.339277029037476</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.384577989578247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.650826930999756</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.675793170928955</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4302480220794678</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4541091918945312</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4276061058044434</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4815678596496582</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.313036918640137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.25619101524353</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.316884994506836</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.473592042922974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.356136083602905</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.34129810333252</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.659090995788574</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.671869039535522</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.426084041595459</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4455380439758301</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4250109195709229</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5241129398345947</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.409886121749878</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.451046705245972</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.698534965515137</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.693136215209961</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.370196104049683</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.360177040100098</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.638766765594482</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.667289018630981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4284217357635498</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4687128067016602</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4262950420379639</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.422313928604126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.319091796875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.264482021331787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.570616245269775</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.478843927383423</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.342938899993896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.335531949996948</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.645282030105591</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.649256944656372</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4328908920288086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4349770545959473</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4134509563446045</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4222149848937988</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.410997867584229</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.436069011688232</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.508625030517578</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.652288198471069</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.360531806945801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.363017082214355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.648588180541992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.661849737167358</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4494929313659668</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4530651569366455</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4273548126220703</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4089958667755127</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.322800159454346</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.263742923736572</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.383116960525513</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.479842185974121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.357447147369385</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.346463918685913</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.661488056182861</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.648953199386597</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4319679737091064</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4185621738433838</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4273879528045654</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4342000484466553</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.410576105117798</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.441241025924683</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.676450729370117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.634760856628418</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.358802080154419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.354360103607178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.657487869262695</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.67254114151001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4266307353973389</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4437596797943115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4297721385955811</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4252080917358398</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.32364296913147</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.272015810012817</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.289185047149658</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.47074294090271</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.342486143112183</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.338757991790771</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.659740209579468</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.718183755874634</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4325032234191895</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4387547969818115</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4269156455993652</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4176843166351318</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.433565139770508</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.441948175430298</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.524769067764282</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.790536880493164</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.342725992202759</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.343845129013062</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.63490104675293</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.641399145126343</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4406731128692627</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4308390617370605</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4295730590820312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4461171627044678</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.305239915847778</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.258147954940796</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.429455280303955</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.541078090667725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.33044695854187</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.340095043182373</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.636940956115723</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.657613039016724</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4546499252319336</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4399600028991699</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4271559715270996</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.434391975402832</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.422353029251099</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.438104867935181</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.670924186706543</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.621509075164795</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.345830917358398</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.346951246261597</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.623063087463379</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.643091917037964</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4261469841003418</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4478509426116943</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4421858787536621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4360697269439697</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.319998025894165</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.26518702507019</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.395190000534058</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.49182915687561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.335785865783691</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.345379114151001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.650756120681763</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.656657934188843</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4248311519622803</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4264452457427979</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5347731113433838</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4202296733856201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.421710014343262</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.439393997192383</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.489056825637817</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.676417589187622</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.34709095954895</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.349879026412964</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.6468186378479</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.669974565505981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4439890384674072</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4306037425994873</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4154078960418701</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4448189735412598</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.32037091255188</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.269516706466675</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.468666315078735</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.490991115570068</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.341108083724976</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.348886966705322</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.650829792022705</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.68927788734436</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4492561817169189</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4223170280456543</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4310290813446045</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4305858612060547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.399671077728271</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.447725057601929</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.466434001922607</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.723351001739502</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7484068870544434</v>
+        <v>0.8002002239227295</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6934850215911865</v>
+        <v>0.6993141174316406</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7814888954162598</v>
+        <v>0.8654310703277588</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7919352054595947</v>
+        <v>0.8729240894317627</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4249870777130127</v>
+        <v>0.5052340030670166</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4297568798065186</v>
+        <v>0.4412131309509277</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4225218296051025</v>
+        <v>0.421036958694458</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4945981502532959</v>
+        <v>0.431696891784668</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4259448051452637</v>
+        <v>0.4473221302032471</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4431056976318359</v>
+        <v>0.4260561466217041</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.413753986358643</v>
+        <v>1.332715034484863</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.460135936737061</v>
+        <v>1.505336761474609</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6903598308563232</v>
+        <v>0.693026065826416</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.711745023727417</v>
+        <v>0.7234299182891846</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8031651973724365</v>
+        <v>0.8586130142211914</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7867269515991211</v>
+        <v>0.8403358459472656</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5204479694366455</v>
+        <v>0.4357700347900391</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4277801513671875</v>
+        <v>0.4471139907836914</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4221870899200439</v>
+        <v>0.4751961231231689</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.42445969581604</v>
+        <v>0.4222910404205322</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4501650333404541</v>
+        <v>0.4244718551635742</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4497570991516113</v>
+        <v>0.5222878456115723</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.362637042999268</v>
+        <v>1.517382144927979</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.481043815612793</v>
+        <v>1.533850908279419</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7575838565826416</v>
+        <v>0.7345771789550781</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6651008129119873</v>
+        <v>0.7212278842926025</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7990012168884277</v>
+        <v>0.8342530727386475</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789459228515625</v>
+        <v>0.8187539577484131</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4376981258392334</v>
+        <v>0.440025806427002</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4381740093231201</v>
+        <v>0.5629560947418213</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4158420562744141</v>
+        <v>0.4184556007385254</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4287300109863281</v>
+        <v>0.4437031745910645</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5681107044219971</v>
+        <v>0.4353699684143066</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4447720050811768</v>
+        <v>0.4207999706268311</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.540954113006592</v>
+        <v>1.570097923278809</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.478178024291992</v>
+        <v>1.557329893112183</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7269680500030518</v>
+        <v>0.7046349048614502</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7200078964233398</v>
+        <v>0.7161781787872314</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7850832939147949</v>
+        <v>0.8655951023101807</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7584278583526611</v>
+        <v>0.8596882820129395</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4121160507202148</v>
+        <v>0.4456188678741455</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4035389423370361</v>
+        <v>0.4356439113616943</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.413377046585083</v>
+        <v>0.4261009693145752</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4068641662597656</v>
+        <v>0.4158480167388916</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4303622245788574</v>
+        <v>0.4514179229736328</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4353251457214355</v>
+        <v>0.4394161701202393</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.350710153579712</v>
+        <v>1.47790002822876</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.40513014793396</v>
+        <v>1.455296039581299</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6636166572570801</v>
+        <v>0.7195930480957031</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6870489120483398</v>
+        <v>0.698479175567627</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7750132083892822</v>
+        <v>0.8354160785675049</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7769012451171875</v>
+        <v>0.8514649868011475</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4430851936340332</v>
+        <v>0.4198453426361084</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4327280521392822</v>
+        <v>0.4425768852233887</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.421018123626709</v>
+        <v>0.4171111583709717</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4250009059906006</v>
+        <v>0.4106631278991699</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4461729526519775</v>
+        <v>0.5314760208129883</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4353559017181396</v>
+        <v>0.4457452297210693</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.457347869873047</v>
+        <v>1.453258991241455</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.500155210494995</v>
+        <v>1.529886960983276</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6694190502166748</v>
+        <v>0.6914761066436768</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6723520755767822</v>
+        <v>0.7982089519500732</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7604780197143555</v>
+        <v>0.8375229835510254</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7649688720703125</v>
+        <v>0.8441998958587646</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4383232593536377</v>
+        <v>0.4357128143310547</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4339029788970947</v>
+        <v>0.4350199699401855</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4316380023956299</v>
+        <v>0.4161560535430908</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4055371284484863</v>
+        <v>0.5343139171600342</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.423396110534668</v>
+        <v>0.4234819412231445</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4384088516235352</v>
+        <v>0.4335269927978516</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.414047002792358</v>
+        <v>1.563936710357666</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.553561925888062</v>
+        <v>1.475202798843384</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7494449615478516</v>
+        <v>0.9541890621185303</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6907122135162354</v>
+        <v>0.9465920925140381</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8993520736694336</v>
+        <v>1.049103260040283</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7950172424316406</v>
+        <v>0.8852100372314453</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.522428035736084</v>
+        <v>0.4402029514312744</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201021194458008</v>
+        <v>0.4694509506225586</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4079411029815674</v>
+        <v>0.4196131229400635</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4133639335632324</v>
+        <v>0.4097127914428711</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4442448616027832</v>
+        <v>0.4065759181976318</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4395933151245117</v>
+        <v>0.4593441486358643</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.559762239456177</v>
+        <v>1.455956935882568</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.457904815673828</v>
+        <v>1.590053796768188</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8206532001495361</v>
+        <v>0.7086999416351318</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6805908679962158</v>
+        <v>0.7018499374389648</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7913568019866943</v>
+        <v>0.8609850406646729</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7938807010650635</v>
+        <v>0.8559277057647705</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4617059230804443</v>
+        <v>0.5205769538879395</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4311010837554932</v>
+        <v>0.4279699325561523</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4176619052886963</v>
+        <v>0.4121799468994141</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4078490734100342</v>
+        <v>0.4235579967498779</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4489059448242188</v>
+        <v>0.4360151290893555</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4395060539245605</v>
+        <v>0.4204988479614258</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.3421790599823</v>
+        <v>1.547145843505859</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.63979697227478</v>
+        <v>1.524303913116455</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7585828304290771</v>
+        <v>0.7181699275970459</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7120277881622314</v>
+        <v>0.7027630805969238</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.909616231918335</v>
+        <v>0.8327181339263916</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7953031063079834</v>
+        <v>0.8437020778656006</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4177801609039307</v>
+        <v>0.4726660251617432</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4453260898590088</v>
+        <v>0.4338469505310059</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3939359188079834</v>
+        <v>0.424976110458374</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4294290542602539</v>
+        <v>0.4409799575805664</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4242789745330811</v>
+        <v>0.4274909496307373</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4335978031158447</v>
+        <v>0.4423909187316895</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.548151969909668</v>
+        <v>1.405182123184204</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.583624839782715</v>
+        <v>1.551210880279541</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6927769184112549</v>
+        <v>0.7075531482696533</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7117719650268555</v>
+        <v>0.7214510440826416</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7973978519439697</v>
+        <v>0.8537271022796631</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.789376974105835</v>
+        <v>0.8504619598388672</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4440162181854248</v>
+        <v>0.5013759136199951</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4210140705108643</v>
+        <v>0.430722713470459</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4282541275024414</v>
+        <v>0.4199206829071045</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4234888553619385</v>
+        <v>0.4223189353942871</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4504787921905518</v>
+        <v>0.4523308277130127</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4209761619567871</v>
+        <v>0.4817788600921631</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.455424070358276</v>
+        <v>1.542031049728394</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.394169092178345</v>
+        <v>1.514960050582886</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7024848461151123</v>
+        <v>0.7054550647735596</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7981979846954346</v>
+        <v>0.7258381843566895</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7783610820770264</v>
+        <v>0.9315741062164307</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7774860858917236</v>
+        <v>0.8337681293487549</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4205460548400879</v>
+        <v>0.4189939498901367</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4384870529174805</v>
+        <v>0.4317560195922852</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4130980968475342</v>
+        <v>0.4187948703765869</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4266731739044189</v>
+        <v>0.4447257518768311</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4525890350341797</v>
+        <v>0.4219856262207031</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4388563632965088</v>
+        <v>0.5410103797912598</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.512042999267578</v>
+        <v>1.449821949005127</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.467483043670654</v>
+        <v>1.497583150863647</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7512178421020508</v>
+        <v>0.7067971229553223</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6702048778533936</v>
+        <v>0.7058608531951904</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7921481132507324</v>
+        <v>0.8536629676818848</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.766862154006958</v>
+        <v>0.9417290687561035</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.415463924407959</v>
+        <v>0.4386920928955078</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4202859401702881</v>
+        <v>0.427886962890625</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4091269969940186</v>
+        <v>0.4176080226898193</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4085311889648438</v>
+        <v>0.4211299419403076</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4778957366943359</v>
+        <v>0.4415891170501709</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4200420379638672</v>
+        <v>0.4317018985748291</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.309121131896973</v>
+        <v>1.54305100440979</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.578609228134155</v>
+        <v>1.512338876724243</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7165157794952393</v>
+        <v>0.7082769870758057</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6820130348205566</v>
+        <v>0.7878291606903076</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7875299453735352</v>
+        <v>0.8467447757720947</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8698210716247559</v>
+        <v>0.8577759265899658</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4201760292053223</v>
+        <v>0.4206709861755371</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201610088348389</v>
+        <v>0.5341157913208008</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4235236644744873</v>
+        <v>0.416862964630127</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4218580722808838</v>
+        <v>0.4121899604797363</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4436080455780029</v>
+        <v>0.4398689270019531</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.426936149597168</v>
+        <v>0.4200711250305176</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.487226724624634</v>
+        <v>1.458108186721802</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.502728939056396</v>
+        <v>1.511731863021851</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6975851058959961</v>
+        <v>0.7191982269287109</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7073240280151367</v>
+        <v>0.7963540554046631</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8007709980010986</v>
+        <v>0.8435189723968506</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8732967376708984</v>
+        <v>0.8400399684906006</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4345159530639648</v>
+        <v>0.4631857872009277</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.454160213470459</v>
+        <v>0.423551082611084</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4444668292999268</v>
+        <v>0.4590771198272705</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4339950084686279</v>
+        <v>0.4168219566345215</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4323880672454834</v>
+        <v>0.4382340908050537</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5486419200897217</v>
+        <v>0.4495079517364502</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.382277011871338</v>
+        <v>1.534236907958984</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.482216358184814</v>
+        <v>1.568529844284058</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7269949913024902</v>
+        <v>0.7756280899047852</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7031409740447998</v>
+        <v>0.6895568370819092</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7813282012939453</v>
+        <v>0.9702529907226562</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7693061828613281</v>
+        <v>0.8508086204528809</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4162118434906006</v>
+        <v>0.4330487251281738</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4186298847198486</v>
+        <v>0.415388822555542</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4087121486663818</v>
+        <v>0.4207520484924316</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5268218517303467</v>
+        <v>0.4153790473937988</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4120240211486816</v>
+        <v>0.4346661567687988</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4327490329742432</v>
+        <v>0.427217960357666</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.508057117462158</v>
+        <v>1.508243083953857</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.639630079269409</v>
+        <v>1.412611961364746</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6780209541320801</v>
+        <v>0.7773630619049072</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7023038864135742</v>
+        <v>0.707578182220459</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7845618724822998</v>
+        <v>0.8662590980529785</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7903110980987549</v>
+        <v>0.9557340145111084</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4384498596191406</v>
+        <v>0.4505259990692139</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4455912113189697</v>
+        <v>0.4334440231323242</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4284486770629883</v>
+        <v>0.4253089427947998</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4238879680633545</v>
+        <v>0.4197831153869629</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4290170669555664</v>
+        <v>0.4916889667510986</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5533890724182129</v>
+        <v>0.4525561332702637</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.383091926574707</v>
+        <v>1.565799713134766</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.514259099960327</v>
+        <v>1.624802112579346</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.684920072555542</v>
+        <v>0.7262809276580811</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7232730388641357</v>
+        <v>0.7050209045410156</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8001880645751953</v>
+        <v>0.825225830078125</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7704668045043945</v>
+        <v>0.8671150207519531</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4103171825408936</v>
+        <v>0.4271531105041504</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4166159629821777</v>
+        <v>0.4516098499298096</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4244089126586914</v>
+        <v>0.4243118762969971</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4143340587615967</v>
+        <v>0.4262709617614746</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.423429012298584</v>
+        <v>0.4370951652526855</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4769368171691895</v>
+        <v>0.4370570182800293</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.445482969284058</v>
+        <v>1.465919971466064</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.519836187362671</v>
+        <v>1.574445724487305</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7012810707092285</v>
+        <v>0.7011620998382568</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.66538405418396</v>
+        <v>0.7042770385742188</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7599349021911621</v>
+        <v>0.8413448333740234</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7780230045318604</v>
+        <v>0.8505349159240723</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4167501926422119</v>
+        <v>0.4289572238922119</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4653739929199219</v>
+        <v>0.4412901401519775</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4558367729187012</v>
+        <v>0.4155809879302979</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.427044153213501</v>
+        <v>0.5529019832611084</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4431061744689941</v>
+        <v>0.4307961463928223</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4531760215759277</v>
+        <v>0.4216709136962891</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.373920917510986</v>
+        <v>1.350586891174316</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47212290763855</v>
+        <v>1.635973930358887</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7091109752655029</v>
+        <v>0.7228031158447266</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7133748531341553</v>
+        <v>0.6935188770294189</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7676188945770264</v>
+        <v>0.849703311920166</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7908668518066406</v>
+        <v>0.8588778972625732</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4998736381530762</v>
+        <v>0.4354057312011719</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4442219734191895</v>
+        <v>0.4377608299255371</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4267559051513672</v>
+        <v>0.4244258403778076</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4259860515594482</v>
+        <v>0.4256997108459473</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4655389785766602</v>
+        <v>0.4334311485290527</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4516043663024902</v>
+        <v>0.4134759902954102</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.488854885101318</v>
+        <v>1.580859184265137</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.535991191864014</v>
+        <v>1.568742990493774</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7051160335540771</v>
+        <v>0.7042038440704346</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6975700855255127</v>
+        <v>0.6893937587738037</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7987060546875</v>
+        <v>0.9748191833496094</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8721699714660645</v>
+        <v>0.8559060096740723</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4307780265808105</v>
+        <v>0.432873010635376</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4257872104644775</v>
+        <v>0.4440257549285889</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.426393985748291</v>
+        <v>0.4155099391937256</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4218039512634277</v>
+        <v>0.4481570720672607</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4374930858612061</v>
+        <v>0.45281982421875</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.446497917175293</v>
+        <v>0.4257721900939941</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.332392930984497</v>
+        <v>1.381430149078369</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.504806995391846</v>
+        <v>1.499644994735718</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.027311086654663</v>
+        <v>2.442605972290039</v>
       </c>
       <c r="D2" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.991534948348999</v>
+        <v>2.374545097351074</v>
       </c>
       <c r="D3" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.284233808517456</v>
+        <v>2.688149929046631</v>
       </c>
       <c r="D4" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.286542177200317</v>
+        <v>2.664790153503418</v>
       </c>
       <c r="D5" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.44942307472229</v>
+        <v>0.447202205657959</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4423940181732178</v>
+        <v>0.442845344543457</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4462430477142334</v>
+        <v>0.4179239273071289</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4288959503173828</v>
+        <v>0.4314112663269043</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.16931414604187</v>
+        <v>1.353761196136475</v>
       </c>
       <c r="D10" t="n">
-        <v>201.622</v>
+        <v>203.794</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.096475839614868</v>
+        <v>1.290812015533447</v>
       </c>
       <c r="D11" t="n">
-        <v>241.523</v>
+        <v>243.695</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.230537176132202</v>
+        <v>2.330455780029297</v>
       </c>
       <c r="D12" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.26639723777771</v>
+        <v>2.397561073303223</v>
       </c>
       <c r="D13" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.987137079238892</v>
+        <v>2.363375902175903</v>
       </c>
       <c r="D14" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.002366065979004</v>
+        <v>2.369007110595703</v>
       </c>
       <c r="D15" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.295869827270508</v>
+        <v>2.764364719390869</v>
       </c>
       <c r="D16" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.269575834274292</v>
+        <v>2.636370897293091</v>
       </c>
       <c r="D17" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4455299377441406</v>
+        <v>0.4251439571380615</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.450800895690918</v>
+        <v>0.4280221462249756</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4394638538360596</v>
+        <v>0.4202349185943604</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4411258697509766</v>
+        <v>0.4241347312927246</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.212182998657227</v>
+        <v>1.395318031311035</v>
       </c>
       <c r="D22" t="n">
-        <v>202.266</v>
+        <v>204.438</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.156255960464478</v>
+        <v>1.358032941818237</v>
       </c>
       <c r="D23" t="n">
-        <v>1020.219</v>
+        <v>1022.391</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.345935821533203</v>
+        <v>2.447296142578125</v>
       </c>
       <c r="D24" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.427527189254761</v>
+        <v>2.579034805297852</v>
       </c>
       <c r="D25" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.340951681137085</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.384018898010254</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.639756202697754</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.633606195449829</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4396471977233887</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4328079223632812</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4275598526000977</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4463291168212891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.326530694961548</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.280963897705078</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.364816904067993</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.619578123092651</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.338219881057739</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.349456310272217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.676787853240967</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.641511201858521</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4439139366149902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4349040985107422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4138460159301758</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5231599807739258</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.400352001190186</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.344738006591797</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.488376140594482</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.613904237747192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.344530344009399</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.34598708152771</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.639970064163208</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.631016254425049</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4441092014312744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4439849853515625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4261207580566406</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4361588954925537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.331265211105347</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.280612945556641</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.581121921539307</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.600864171981812</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.348184823989868</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.349342823028564</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.652945041656494</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.662000894546509</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4355721473693848</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5574920177459717</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4213950634002686</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4249110221862793</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.408414840698242</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.34807014465332</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.509231805801392</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.594582796096802</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.356786012649536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.354552984237671</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.648860931396484</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.638805866241455</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4543490409851074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4976866245269775</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4276340007781982</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4233958721160889</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.336892127990723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.288532972335815</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.356716871261597</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.554716110229492</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.337870121002197</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.350781917572021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.65543794631958</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.634849071502686</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4459187984466553</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5199470520019531</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4199531078338623</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4133398532867432</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.400256156921387</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.342632055282593</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.700469017028809</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.649674892425537</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.36133885383606</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.347762107849121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.657133817672729</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.654674053192139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.449815034866333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4263579845428467</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4193320274353027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.420665979385376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.352633237838745</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.277775049209595</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.194375991821289</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.563905239105225</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.338586807250977</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.369340181350708</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.64537501335144</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.653408050537109</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4325449466705322</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.554793119430542</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4225621223449707</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5388662815093994</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.40736722946167</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.347526788711548</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.640087127685547</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.629190921783447</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.354645013809204</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.348811864852905</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.728414058685303</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.668336153030396</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4363157749176025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4289541244506836</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4194471836090088</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4146256446838379</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.347047805786133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.272417068481445</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.365965843200684</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.553749084472656</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.350784063339233</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.370666027069092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.742005109786987</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.629786014556885</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4520218372344971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4288630485534668</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4174280166625977</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4272980690002441</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.396223068237305</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.351474046707153</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.645434141159058</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.641128063201904</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.360769748687744</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.349411010742188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.637688875198364</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.638205289840698</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4288370609283447</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4302132129669189</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4189870357513428</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4145359992980957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.344026803970337</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.279228925704956</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.327666044235229</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.604353666305542</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.354012012481689</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.358476877212524</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.653888940811157</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.641386032104492</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4350569248199463</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4300408363342285</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4558849334716797</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4470820426940918</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.407789707183838</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.353839159011841</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.550764083862305</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.54639196395874</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.373749971389771</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.37031888961792</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.655353784561157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.641511917114258</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4494528770446777</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4453990459442139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4517481327056885</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3984940052032471</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.337992191314697</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.281008005142212</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.342438936233521</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.618875741958618</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.33774995803833</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.364100933074951</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.652652978897095</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.64266300201416</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4375348091125488</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4502840042114258</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4205770492553711</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4097630977630615</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.407819986343384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.336656808853149</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.656525135040283</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.596028089523315</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.33452582359314</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.349196910858154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.657316923141479</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.63970160484314</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4284899234771729</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4298818111419678</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4307620525360107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5396628379821777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.331592082977295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.269284725189209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.565197229385376</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.49938702583313</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.336935997009277</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.357665061950684</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.647541046142578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.785537004470825</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4246389865875244</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4428658485412598</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6858329772949219</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.453</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4149789810180664</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.404675006866455</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.341516971588135</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.51603102684021</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.614052057266235</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.351784229278564</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.362396001815796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.64699387550354</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.627599716186523</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4224460124969482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4416451454162598</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4169290065765381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.418543815612793</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.330541849136353</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.287213087081909</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.418417930603027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.643051147460938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.341625213623047</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.350917100906372</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.65615701675415</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.647484302520752</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4345839023590088</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4342610836029053</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4130120277404785</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4445991516113281</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.40275502204895</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.348700046539307</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.718982219696045</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.544573068618774</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7806012630462646</v>
+        <v>1.016673803329468</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7353360652923584</v>
+        <v>0.8495931625366211</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7968020439147949</v>
+        <v>0.9791841506958008</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7979400157928467</v>
+        <v>0.8453879356384277</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4381582736968994</v>
+        <v>0.4348280429840088</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4348013401031494</v>
+        <v>0.4337608814239502</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4259140491485596</v>
+        <v>0.4290668964385986</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4328861236572266</v>
+        <v>0.4087390899658203</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,7 +602,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4528131484985352</v>
+        <v>0.4732470512390137</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4352328777313232</v>
+        <v>0.4302201271057129</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.48858904838562</v>
+        <v>1.484477996826172</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.676651000976562</v>
+        <v>1.502413749694824</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8255529403686523</v>
+        <v>0.7004368305206299</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6945428848266602</v>
+        <v>0.7077338695526123</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8005597591400146</v>
+        <v>0.8599247932434082</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.79709792137146</v>
+        <v>0.8399059772491455</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4391307830810547</v>
+        <v>0.4211618900299072</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4357481002807617</v>
+        <v>0.4385459423065186</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4317610263824463</v>
+        <v>0.4184150695800781</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4243049621582031</v>
+        <v>0.4290330410003662</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4367508888244629</v>
+        <v>0.4305572509765625</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -810,7 +810,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4292631149291992</v>
+        <v>0.4375600814819336</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.705630779266357</v>
+        <v>1.579450130462646</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.776830911636353</v>
+        <v>1.632622718811035</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5404560565948486</v>
+        <v>0.7233948707580566</v>
       </c>
       <c r="D2" t="n">
-        <v>38.894</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5310599803924561</v>
+        <v>0.7332308292388916</v>
       </c>
       <c r="D3" t="n">
-        <v>38.894</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7938699722290039</v>
+        <v>0.8425557613372803</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7882838249206543</v>
+        <v>0.8421869277954102</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4294970035552979</v>
+        <v>0.4430510997772217</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4462301731109619</v>
+        <v>0.5726289749145508</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4351491928100586</v>
+        <v>0.4494509696960449</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4167380332946777</v>
+        <v>0.4427752494812012</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4506330490112305</v>
+        <v>0.4793508052825928</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4233460426330566</v>
+        <v>0.5027480125427246</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.433727979660034</v>
+        <v>1.388028860092163</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.643336296081543</v>
+        <v>1.559345245361328</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.70552659034729</v>
+        <v>0.7101409435272217</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7056257724761963</v>
+        <v>0.7673461437225342</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8028643131256104</v>
+        <v>0.8402888774871826</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.764782190322876</v>
+        <v>0.8436219692230225</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4409399032592773</v>
+        <v>0.4442398548126221</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4427769184112549</v>
+        <v>0.572634220123291</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4300508499145508</v>
+        <v>0.4270291328430176</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4212839603424072</v>
+        <v>0.4295108318328857</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4783978462219238</v>
+        <v>0.4648103713989258</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4568109512329102</v>
+        <v>0.426159143447876</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.631799936294556</v>
+        <v>1.456193923950195</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.772340059280396</v>
+        <v>1.67082405090332</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7066938877105713</v>
+        <v>0.7304971218109131</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7232377529144287</v>
+        <v>1.035998106002808</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7928831577301025</v>
+        <v>0.8674607276916504</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7743988037109375</v>
+        <v>0.8609628677368164</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4259328842163086</v>
+        <v>0.4313919544219971</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4438090324401855</v>
+        <v>0.4579756259918213</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.426649808883667</v>
+        <v>0.4205138683319092</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4195351600646973</v>
+        <v>0.5505211353302002</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.441342830657959</v>
+        <v>0.4339911937713623</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4394748210906982</v>
+        <v>0.4679629802703857</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.498505115509033</v>
+        <v>1.581637859344482</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.680912017822266</v>
+        <v>1.518041133880615</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.702488899230957</v>
+        <v>0.7116951942443848</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6986923217773438</v>
+        <v>0.7104761600494385</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7924597263336182</v>
+        <v>0.8387718200683594</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8051130771636963</v>
+        <v>0.8644800186157227</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.445382833480835</v>
+        <v>0.4377138614654541</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4285051822662354</v>
+        <v>0.4472031593322754</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4173469543457031</v>
+        <v>0.4329738616943359</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5369820594787598</v>
+        <v>0.4818129539489746</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4590919017791748</v>
+        <v>0.4366941452026367</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1660,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4974658489227295</v>
+        <v>0.42405104637146</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.651704072952271</v>
+        <v>1.511616945266724</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.778126955032349</v>
+        <v>1.764559984207153</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7753050327301025</v>
+        <v>0.7010838985443115</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7316629886627197</v>
+        <v>0.7094199657440186</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.807377815246582</v>
+        <v>0.845026969909668</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7987320423126221</v>
+        <v>0.8574569225311279</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4212088584899902</v>
+        <v>0.4523642063140869</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450299739837646</v>
+        <v>0.4483189582824707</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4212679862976074</v>
+        <v>0.4222278594970703</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4242701530456543</v>
+        <v>0.4315838813781738</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4396219253540039</v>
+        <v>0.4351239204406738</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4449119567871094</v>
+        <v>0.4288020133972168</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.50721287727356</v>
+        <v>1.444968938827515</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.605452060699463</v>
+        <v>1.487626075744629</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7983508110046387</v>
+        <v>0.7267200946807861</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7066581249237061</v>
+        <v>0.7096707820892334</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8264291286468506</v>
+        <v>0.8477010726928711</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7866799831390381</v>
+        <v>0.8549168109893799</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4427049160003662</v>
+        <v>0.4550850391387939</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4385480880737305</v>
+        <v>0.4452250003814697</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4124119281768799</v>
+        <v>0.4195590019226074</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5387668609619141</v>
+        <v>0.4093470573425293</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.464580774307251</v>
+        <v>0.5263040065765381</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2085,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4474349021911621</v>
+        <v>0.4140870571136475</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.43604302406311</v>
+        <v>1.410737991333008</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2117,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.700127840042114</v>
+        <v>1.75085186958313</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7095661163330078</v>
+        <v>0.7150909900665283</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7324330806732178</v>
+        <v>0.710209846496582</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7911927700042725</v>
+        <v>0.8593149185180664</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8040351867675781</v>
+        <v>0.8410189151763916</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4358911514282227</v>
+        <v>0.4477481842041016</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4402890205383301</v>
+        <v>0.4150989055633545</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4282219409942627</v>
+        <v>0.421036958694458</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4098398685455322</v>
+        <v>0.4267570972442627</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4754738807678223</v>
+        <v>0.4807069301605225</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4328567981719971</v>
+        <v>0.4553263187408447</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.42178201675415</v>
+        <v>1.527176141738892</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.553277015686035</v>
+        <v>1.527103900909424</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7062039375305176</v>
+        <v>0.7804329395294189</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7264690399169922</v>
+        <v>0.7050650119781494</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7813549041748047</v>
+        <v>0.8390979766845703</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8057858943939209</v>
+        <v>0.8476798534393311</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5454261302947998</v>
+        <v>0.4344382286071777</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4218559265136719</v>
+        <v>0.4271218776702881</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4354097843170166</v>
+        <v>0.4256269931793213</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4164061546325684</v>
+        <v>0.4266080856323242</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4431610107421875</v>
+        <v>0.4832141399383545</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2510,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4638240337371826</v>
+        <v>0.4473459720611572</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2526,7 +2526,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.659909725189209</v>
+        <v>1.266390800476074</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.74036979675293</v>
+        <v>1.715399265289307</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7257218360900879</v>
+        <v>0.7210240364074707</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7248411178588867</v>
+        <v>0.7258498668670654</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.791917085647583</v>
+        <v>0.8631138801574707</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8758449554443359</v>
+        <v>0.8562319278717041</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431401252746582</v>
+        <v>0.4398608207702637</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4276101589202881</v>
+        <v>0.4357466697692871</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4216136932373047</v>
+        <v>0.4471051692962646</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4337680339813232</v>
+        <v>0.436582088470459</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4212071895599365</v>
+        <v>0.5617358684539795</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4283709526062012</v>
+        <v>0.4501800537109375</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.609096050262451</v>
+        <v>1.566616773605347</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.661034822463989</v>
+        <v>1.58787202835083</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7108390331268311</v>
+        <v>0.7025351524353027</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.545447826385498</v>
+        <v>0.8063738346099854</v>
       </c>
       <c r="D15" t="n">
-        <v>39.092</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8723540306091309</v>
+        <v>0.8675229549407959</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7927350997924805</v>
+        <v>0.835345983505249</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4278998374938965</v>
+        <v>0.428462028503418</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4404070377349854</v>
+        <v>0.4380679130554199</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4276189804077148</v>
+        <v>0.4281220436096191</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4813029766082764</v>
+        <v>0.416269063949585</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4513089656829834</v>
+        <v>0.4323089122772217</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.437061071395874</v>
+        <v>0.4547059535980225</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.654114961624146</v>
+        <v>1.42236590385437</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.776955842971802</v>
+        <v>1.652091979980469</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7956371307373047</v>
+        <v>0.7109150886535645</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8039007186889648</v>
+        <v>0.7248330116271973</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8003180027008057</v>
+        <v>0.8514091968536377</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8202800750732422</v>
+        <v>0.9772019386291504</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4329202175140381</v>
+        <v>0.4210989475250244</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4360089302062988</v>
+        <v>0.4340229034423828</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5425097942352295</v>
+        <v>0.4332742691040039</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4359900951385498</v>
+        <v>0.4149558544158936</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4286439418792725</v>
+        <v>0.4410257339477539</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4367601871490479</v>
+        <v>0.4418501853942871</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.547851800918579</v>
+        <v>1.5385582447052</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.719590902328491</v>
+        <v>1.560427904129028</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8063600063323975</v>
+        <v>0.7108840942382812</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7393357753753662</v>
+        <v>0.7035787105560303</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7956328392028809</v>
+        <v>0.890131950378418</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7961080074310303</v>
+        <v>0.8321290016174316</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5325691699981689</v>
+        <v>0.4168190956115723</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4352431297302246</v>
+        <v>0.4555389881134033</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4275548458099365</v>
+        <v>0.4114201068878174</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4112479686737061</v>
+        <v>0.4199502468109131</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4317941665649414</v>
+        <v>0.4371700286865234</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3360,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5510778427124023</v>
+        <v>0.4636940956115723</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3376,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.54088306427002</v>
+        <v>1.589523077011108</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.72182297706604</v>
+        <v>1.627335071563721</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7444121837615967</v>
+        <v>0.7030749320983887</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6986019611358643</v>
+        <v>0.760167121887207</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8115677833557129</v>
+        <v>0.8516359329223633</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7781603336334229</v>
+        <v>0.8589050769805908</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4366860389709473</v>
+        <v>0.4560439586639404</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4304599761962891</v>
+        <v>0.4365217685699463</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4248208999633789</v>
+        <v>0.432304859161377</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4192850589752197</v>
+        <v>0.4471390247344971</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4278032779693604</v>
+        <v>0.4389238357543945</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3593,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.463660717010498</v>
+        <v>0.4237329959869385</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.615453004837036</v>
+        <v>1.393722057342529</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.633113145828247</v>
+        <v>1.556810855865479</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7064998149871826</v>
+        <v>0.7064168453216553</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7205591201782227</v>
+        <v>0.7971532344818115</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7867679595947266</v>
+        <v>0.8555870056152344</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7703568935394287</v>
+        <v>0.8264219760894775</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.441309928894043</v>
+        <v>0.4285669326782227</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.444101095199585</v>
+        <v>0.4364118576049805</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4349400997161865</v>
+        <v>0.4239490032196045</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4352030754089355</v>
+        <v>0.4376609325408936</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.441648006439209</v>
+        <v>0.4272289276123047</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4361169338226318</v>
+        <v>0.7449400424957275</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>949.2619999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.458418130874634</v>
+        <v>1.592161178588867</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.884158134460449</v>
+        <v>1.907789945602417</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7136690616607666</v>
+        <v>0.736414909362793</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7305638790130615</v>
+        <v>0.7314102649688721</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8095290660858154</v>
+        <v>0.8404872417449951</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8026969432830811</v>
+        <v>0.8481457233428955</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4478020668029785</v>
+        <v>0.4327399730682373</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4599950313568115</v>
+        <v>0.456467866897583</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4281549453735352</v>
+        <v>0.4272298812866211</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4199750423431396</v>
+        <v>0.4193470478057861</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4515061378479004</v>
+        <v>0.4706089496612549</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4454469680786133</v>
+        <v>0.4204831123352051</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.373320817947388</v>
+        <v>1.386163949966431</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.698823928833008</v>
+        <v>1.580181837081909</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7041678428649902</v>
+        <v>0.7276220321655273</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6944799423217773</v>
+        <v>0.7247710227966309</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7870559692382812</v>
+        <v>0.8520119190216064</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.801581859588623</v>
+        <v>0.9018650054931641</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4465212821960449</v>
+        <v>0.4485599994659424</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4683942794799805</v>
+        <v>0.459136962890625</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4287099838256836</v>
+        <v>0.4517290592193604</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4312100410461426</v>
+        <v>0.428713321685791</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4371588230133057</v>
+        <v>0.4413590431213379</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4463350772857666</v>
+        <v>0.4462802410125732</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4226,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.648590087890625</v>
+        <v>1.596887826919556</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4242,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.627468109130859</v>
+        <v>1.731464862823486</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7226159572601318</v>
+        <v>0.7227730751037598</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7035481929779053</v>
+        <v>0.7165381908416748</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8160717487335205</v>
+        <v>0.8415839672088623</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7834749221801758</v>
+        <v>0.8400492668151855</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4296920299530029</v>
+        <v>0.4339382648468018</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4559280872344971</v>
+        <v>0.4396669864654541</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4319579601287842</v>
+        <v>0.4456532001495361</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4428300857543945</v>
+        <v>0.4487659931182861</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8721680641174316</v>
+        <v>0.4445021152496338</v>
       </c>
       <c r="D10" t="n">
-        <v>202.298</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -4443,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.44252610206604</v>
+        <v>0.4598362445831299</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.33740496635437</v>
+        <v>1.313939094543457</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.366858005523682</v>
+        <v>1.470377922058105</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7648067474365234</v>
+        <v>0.730435848236084</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7292912006378174</v>
+        <v>0.721663236618042</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.813478946685791</v>
+        <v>0.8356671333312988</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8141119480133057</v>
+        <v>0.8483090400695801</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4464430809020996</v>
+        <v>0.4573590755462646</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4312338829040527</v>
+        <v>0.4468340873718262</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4356138706207275</v>
+        <v>0.4183859825134277</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4307630062103271</v>
+        <v>0.444598913192749</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,7 +4619,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4439029693603516</v>
+        <v>0.4284660816192627</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.497316837310791</v>
+        <v>0.4397439956665039</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4651,7 +4651,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.529911994934082</v>
+        <v>1.543300867080688</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4667,7 +4667,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.740652799606323</v>
+        <v>1.734032154083252</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>

--- a/client/test_results/filtered_chrome_test_results.xlsx
+++ b/client/test_results/filtered_chrome_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9165639877319336</v>
+        <v>0.7745540142059326</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7528769969940186</v>
+        <v>0.8388118743896484</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8037211894989014</v>
+        <v>0.8615820407867432</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8640892505645752</v>
+        <v>0.8452479839324951</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4362220764160156</v>
+        <v>0.4352338314056396</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4312961101531982</v>
+        <v>0.449002742767334</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.430994987487793</v>
+        <v>0.422210693359375</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4330959320068359</v>
+        <v>0.419346809387207</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4420208930969238</v>
+        <v>0.4380879402160645</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4850790500640869</v>
+        <v>0.454334020614624</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.44200587272644</v>
+        <v>1.503620862960815</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.476177215576172</v>
+        <v>1.604317188262939</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7150301933288574</v>
+        <v>0.7262239456176758</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6994540691375732</v>
+        <v>0.7148988246917725</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8043820858001709</v>
+        <v>0.8682069778442383</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7800760269165039</v>
+        <v>0.856989860534668</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4435577392578125</v>
+        <v>0.4235579967498779</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4344561100006104</v>
+        <v>0.4332940578460693</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.429649829864502</v>
+        <v>0.4185960292816162</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4316771030426025</v>
+        <v>0.4305441379547119</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8158318996429443</v>
+        <v>0.4453208446502686</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4293355941772461</v>
+        <v>0.4412641525268555</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.543668031692505</v>
+        <v>1.568091869354248</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.477885246276855</v>
+        <v>1.764134883880615</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7047379016876221</v>
+        <v>0.7651650905609131</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7138171195983887</v>
+        <v>0.7140629291534424</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7903759479522705</v>
+        <v>0.8429348468780518</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7826910018920898</v>
+        <v>0.8522522449493408</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4489071369171143</v>
+        <v>0.5294430255889893</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.434283971786499</v>
+        <v>0.4385800361633301</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4253408908843994</v>
+        <v>0.4235589504241943</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4302642345428467</v>
+        <v>0.4244060516357422</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4547581672668457</v>
+        <v>0.4087719917297363</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4331698417663574</v>
+        <v>0.4285759925842285</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.480869770050049</v>
+        <v>1.36391282081604</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.495388031005859</v>
+        <v>1.730360984802246</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.716663122177124</v>
+        <v>0.7115707397460938</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7392492294311523</v>
+        <v>0.8140690326690674</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8043100833892822</v>
+        <v>0.8398611545562744</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7888460159301758</v>
+        <v>0.8427648544311523</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4430420398712158</v>
+        <v>0.4536068439483643</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4424870014190674</v>
+        <v>0.4562139511108398</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4193611145019531</v>
+        <v>0.4304220676422119</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4240069389343262</v>
+        <v>0.4234418869018555</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4461841583251953</v>
+        <v>0.4347789287567139</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4311707019805908</v>
+        <v>0.5984220504760742</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.439081907272339</v>
+        <v>1.630059719085693</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.712447166442871</v>
+        <v>1.598855018615723</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7381958961486816</v>
+        <v>0.8279590606689453</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.022484064102173</v>
+        <v>0.7266747951507568</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7923071384429932</v>
+        <v>0.8493859767913818</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7882370948791504</v>
+        <v>0.8670310974121094</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4280540943145752</v>
+        <v>0.4460680484771729</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4346749782562256</v>
+        <v>0.4254970550537109</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4212422370910645</v>
+        <v>0.4148681163787842</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4153242111206055</v>
+        <v>0.4179141521453857</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4445822238922119</v>
+        <v>0.5430490970611572</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4452619552612305</v>
+        <v>0.4549689292907715</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.458808898925781</v>
+        <v>1.518584012985229</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.402365922927856</v>
+        <v>1.591077089309692</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7403693199157715</v>
+        <v>0.6997666358947754</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7131850719451904</v>
+        <v>0.7058250904083252</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7925610542297363</v>
+        <v>0.8395781517028809</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7999839782714844</v>
+        <v>0.8474712371826172</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4395577907562256</v>
+        <v>0.438788890838623</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4387929439544678</v>
+        <v>0.4409899711608887</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4494121074676514</v>
+        <v>0.4156837463378906</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4262840747833252</v>
+        <v>0.422410249710083</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4357850551605225</v>
+        <v>0.602733850479126</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5138380527496338</v>
+        <v>0.4202821254730225</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.513117074966431</v>
+        <v>1.655619144439697</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.606353998184204</v>
+        <v>1.735738277435303</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6977519989013672</v>
+        <v>0.7156028747558594</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7016110420227051</v>
+        <v>0.7261922359466553</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8724019527435303</v>
+        <v>0.8547000885009766</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7928071022033691</v>
+        <v>0.8453738689422607</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6034018993377686</v>
+        <v>0.4426250457763672</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5216410160064697</v>
+        <v>0.4454998970031738</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5680339336395264</v>
+        <v>0.5071418285369873</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4195048809051514</v>
+        <v>0.4221110343933105</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4814009666442871</v>
+        <v>0.443274974822998</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4343700408935547</v>
+        <v>0.43499755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.361661195755005</v>
+        <v>1.519021034240723</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.50208306312561</v>
+        <v>1.656696081161499</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.70638108253479</v>
+        <v>0.8255670070648193</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7258796691894531</v>
+        <v>0.709846019744873</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7678549289703369</v>
+        <v>0.8531110286712646</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7997429370880127</v>
+        <v>0.8345491886138916</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4316940307617188</v>
+        <v>0.451441764831543</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.427929162979126</v>
+        <v>0.4352977275848389</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4405992031097412</v>
+        <v>0.4265947341918945</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4821188449859619</v>
+        <v>0.4157540798187256</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4619860649108887</v>
+        <v>0.440532922744751</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4264509677886963</v>
+        <v>0.4475178718566895</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.520278930664062</v>
+        <v>1.723304986953735</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.632723808288574</v>
+        <v>1.697976112365723</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7124831676483154</v>
+        <v>0.7190542221069336</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501082420349121</v>
+        <v>0.7073249816894531</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8044641017913818</v>
+        <v>1.119671821594238</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7955350875854492</v>
+        <v>0.8518109321594238</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4498071670532227</v>
+        <v>0.512545108795166</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4305453300476074</v>
+        <v>0.4311079978942871</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4567837715148926</v>
+        <v>0.4318439960479736</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4307069778442383</v>
+        <v>0.419327974319458</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4470582008361816</v>
+        <v>0.4565260410308838</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4454429149627686</v>
+        <v>0.5741848945617676</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.361904144287109</v>
+        <v>1.475760936737061</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.54149603843689</v>
+        <v>1.666526794433594</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7160959243774414</v>
+        <v>0.7344229221343994</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6955101490020752</v>
+        <v>0.712554931640625</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7913219928741455</v>
+        <v>0.8716869354248047</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8276097774505615</v>
+        <v>0.8525562286376953</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4477341175079346</v>
+        <v>0.5144760608673096</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4575390815734863</v>
+        <v>0.4446558952331543</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4271128177642822</v>
+        <v>0.4176390171051025</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4286808967590332</v>
+        <v>0.5353090763092041</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4424810409545898</v>
+        <v>0.4615719318389893</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4313647747039795</v>
+        <v>0.4424388408660889</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.379252910614014</v>
+        <v>1.648260116577148</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.589887142181396</v>
+        <v>1.558380842208862</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7147810459136963</v>
+        <v>0.7204720973968506</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7090599536895752</v>
+        <v>0.7461450099945068</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7915549278259277</v>
+        <v>0.8784980773925781</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8085780143737793</v>
+        <v>0.8538830280303955</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.504817008972168</v>
+        <v>0.426145076751709</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4372270107269287</v>
+        <v>0.4219589233398438</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4294359683990479</v>
+        <v>0.4269979000091553</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4270389080047607</v>
+        <v>0.4211199283599854</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4216697216033936</v>
+        <v>0.430837869644165</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4271140098571777</v>
+        <v>0.4247918128967285</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.541006088256836</v>
+        <v>1.530054092407227</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.476144790649414</v>
+        <v>1.574465990066528</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7130911350250244</v>
+        <v>0.7010769844055176</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7172670364379883</v>
+        <v>0.7154459953308105</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9248099327087402</v>
+        <v>0.8509759902954102</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8077511787414551</v>
+        <v>0.8581550121307373</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.517470121383667</v>
+        <v>0.4440169334411621</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.16963005065918</v>
+        <v>0.4499959945678711</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7607901096343994</v>
+        <v>0.4290430545806885</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4687941074371338</v>
+        <v>0.4317269325256348</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.43890380859375</v>
+        <v>0.4408700466156006</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4385840892791748</v>
+        <v>0.4644942283630371</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.345754146575928</v>
+        <v>1.66926097869873</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.513746023178101</v>
+        <v>1.651914119720459</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7212190628051758</v>
+        <v>0.6995468139648438</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7029111385345459</v>
+        <v>0.8101291656494141</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.014864921569824</v>
+        <v>0.8484170436859131</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7946300506591797</v>
+        <v>0.842033863067627</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4225308895111084</v>
+        <v>0.430372953414917</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4339909553527832</v>
+        <v>0.4471559524536133</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4241549968719482</v>
+        <v>0.4207179546356201</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4227590560913086</v>
+        <v>0.4196009635925293</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4376780986785889</v>
+        <v>0.4410521984100342</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.452160120010376</v>
+        <v>0.4338948726654053</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.486711740493774</v>
+        <v>1.490007162094116</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.473312854766846</v>
+        <v>1.659806966781616</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7386829853057861</v>
+        <v>0.7102742195129395</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8030211925506592</v>
+        <v>0.8186080455780029</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8877103328704834</v>
+        <v>0.8689720630645752</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7946047782897949</v>
+        <v>0.8436310291290283</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.431786060333252</v>
+        <v>0.4336750507354736</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.425858736038208</v>
+        <v>0.4364290237426758</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5446970462799072</v>
+        <v>0.4129631519317627</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4339070320129395</v>
+        <v>0.4291901588439941</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4593360424041748</v>
+        <v>0.4733359813690186</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4512271881103516</v>
+        <v>0.4616708755493164</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.35998797416687</v>
+        <v>1.48578405380249</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.978863000869751</v>
+        <v>1.707613945007324</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7014451026916504</v>
+        <v>0.8005189895629883</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8034918308258057</v>
+        <v>0.7119660377502441</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.809420108795166</v>
+        <v>0.8465197086334229</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7979199886322021</v>
+        <v>0.8584377765655518</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4584388732910156</v>
+        <v>0.4290030002593994</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4215543270111084</v>
+        <v>0.41668701171875</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4341659545898438</v>
+        <v>0.4405319690704346</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4368298053741455</v>
+        <v>0.5305829048156738</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.456118106842041</v>
+        <v>0.529494047164917</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4441349506378174</v>
+        <v>0.4541761875152588</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.485030889511108</v>
+        <v>1.509214162826538</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.574733018875122</v>
+        <v>1.59600305557251</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7125649452209473</v>
+        <v>0.7108850479125977</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7524280548095703</v>
+        <v>0.7035698890686035</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7881038188934326</v>
+        <v>0.8565177917480469</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.790503978729248</v>
+        <v>0.8502631187438965</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4273138046264648</v>
+        <v>0.4252469539642334</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.424839973449707</v>
+        <v>0.4397487640380859</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4116547107696533</v>
+        <v>0.4207220077514648</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4342319965362549</v>
+        <v>0.418910026550293</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4283089637756348</v>
+        <v>0.4625480175018311</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4312598705291748</v>
+        <v>0.4253170490264893</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.40225887298584</v>
+        <v>1.614463329315186</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.651657819747925</v>
+        <v>1.668225765228271</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8049640655517578</v>
+        <v>0.8014419078826904</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7040529251098633</v>
+        <v>0.7067720890045166</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8160431385040283</v>
+        <v>0.8574998378753662</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9166750907897949</v>
+        <v>0.8582241535186768</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5676031112670898</v>
+        <v>0.4439716339111328</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.571134090423584</v>
+        <v>0.4318997859954834</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4191188812255859</v>
+        <v>0.4187479019165039</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4223408699035645</v>
+        <v>0.4259698390960693</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5474228858947754</v>
+        <v>0.5530970096588135</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4334390163421631</v>
+        <v>0.5302982330322266</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.480861902236938</v>
+        <v>1.473302125930786</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.52758002281189</v>
+        <v>1.673773050308228</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7124199867248535</v>
+        <v>0.8027138710021973</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7084312438964844</v>
+        <v>0.7255420684814453</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7941060066223145</v>
+        <v>0.8564350605010986</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8007171154022217</v>
+        <v>0.8455491065979004</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4363126754760742</v>
+        <v>0.4392051696777344</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4419300556182861</v>
+        <v>0.4402730464935303</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4268081188201904</v>
+        <v>0.4281721115112305</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4288649559020996</v>
+        <v>0.4151387214660645</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4567797183990479</v>
+        <v>0.4314541816711426</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4288620948791504</v>
+        <v>0.4259750843048096</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.308621883392334</v>
+        <v>1.730822086334229</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.771204710006714</v>
+        <v>1.741115093231201</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7061319351196289</v>
+        <v>0.7185158729553223</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7398982048034668</v>
+        <v>0.69551682472229</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8130040168762207</v>
+        <v>0.8608839511871338</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8321750164031982</v>
+        <v>0.850816011428833</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4308719635009766</v>
+        <v>0.4245729446411133</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4294309616088867</v>
+        <v>0.4236941337585449</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417046070098877</v>
+        <v>0.42411208152771</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4400777816772461</v>
+        <v>0.5605599880218506</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.464475154876709</v>
+        <v>0.4328839778900146</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4390811920166016</v>
+        <v>0.4371531009674072</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.346923112869263</v>
+        <v>1.430044889450073</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.624987125396729</v>
+        <v>1.761683940887451</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7037858963012695</v>
+        <v>0.736353874206543</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7123289108276367</v>
+        <v>0.7106561660766602</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7738540172576904</v>
+        <v>0.8482429981231689</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7909440994262695</v>
+        <v>0.8453330993652344</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.435230016708374</v>
+        <v>0.4419152736663818</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.432744026184082</v>
+        <v>0.4351608753204346</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5467650890350342</v>
+        <v>0.4331619739532471</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4285628795623779</v>
+        <v>0.4292521476745605</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4313788414001465</v>
+        <v>0.4354429244995117</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4246370792388916</v>
+        <v>0.4539530277252197</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.298172950744629</v>
+        <v>1.788145780563354</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.643810987472534</v>
+        <v>1.64382791519165</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
